--- a/src/test/resources/excelData/customerLoginData.xlsx
+++ b/src/test/resources/excelData/customerLoginData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/excelData/customerLoginData.xlsx
+++ b/src/test/resources/excelData/customerLoginData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
   <si>
     <t>username</t>
   </si>

--- a/src/test/resources/excelData/customerLoginData.xlsx
+++ b/src/test/resources/excelData/customerLoginData.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="8">
   <si>
     <t>username</t>
   </si>
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="b" s="0">
         <v>1</v>
